--- a/ExecutionTestData/4/TestData.xlsx
+++ b/ExecutionTestData/4/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ExecutionTestData\Batch4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -478,33 +478,12 @@
   <si>
     <t>121212</t>
   </si>
-  <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
-  </si>
-  <si>
-    <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
-  </si>
-  <si>
-    <t>ONEPLUS_5_Android_9.0.0_d9e3e</t>
-  </si>
-  <si>
-    <t>ONEPLUS_7_Android_10.0.0_1c4f5</t>
-  </si>
-  <si>
-    <t>ONEPLUS_8T_Android_11.0.0_f37ff</t>
-  </si>
-  <si>
-    <t>REALME_7i_Android_10.0.0_3e0a3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,16 +528,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -634,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -686,10 +655,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -701,55 +667,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1251,22 +1169,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="14" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1276,85 +1191,19 @@
       <c r="C1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1364,41 +1213,8 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1408,41 +1224,8 @@
       <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1452,41 +1235,8 @@
       <c r="C5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1496,41 +1246,8 @@
       <c r="C6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1540,41 +1257,8 @@
       <c r="C7" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1584,41 +1268,8 @@
       <c r="C8" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1628,41 +1279,8 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-      <c r="M9" s="18">
-        <v>12</v>
-      </c>
-      <c r="N9" s="18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1672,48 +1290,15 @@
       <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:N2">
-    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:N2">
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Not Working">
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1817,7 +1402,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1882,7 +1467,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+      <c r="A3" s="22"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1998,7 +1583,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -2024,7 +1609,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
+      <c r="A13" s="23"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/4/TestData.xlsx
+++ b/ExecutionTestData/4/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finalList9Feb\batches\Batch4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="158">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -478,12 +478,48 @@
   <si>
     <t>121212</t>
   </si>
+  <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote8Pro_Android_10.0.0_d3e8a</t>
+  </si>
+  <si>
+    <t>HUAWEI_P30Lite_Android_10.0.0_693f0</t>
+  </si>
+  <si>
+    <t>HUAWEI_nova3i_Android_8.1.0_c7f62</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi6Pro_Android_8.1.0_3492f</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote5Pro_Android_9.0.0_d098d</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiY2_Android_9.0.0_be7ae</t>
+  </si>
+  <si>
+    <t>HUAWEI_P20Pro_Android_10.0.0_dec7f</t>
+  </si>
+  <si>
+    <t>HUAWEI_Honor9A_Android_10.0.0_d1e87</t>
+  </si>
+  <si>
+    <t>XIAOMI_Mi11Lite_Android_11.0.0_18ffa</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi10Prime_Android_11.0.0_6ef79</t>
+  </si>
+  <si>
+    <t>XIAOMI_XIAOMI_Android_11.0.0_668ba</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,6 +566,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -545,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -598,12 +639,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -655,12 +709,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,7 +1050,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1011,7 +1071,7 @@
     <col min="17" max="16384" width="14.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,7 +1121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1111,7 +1171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="6" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1169,41 +1229,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="8" max="20" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="9" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1213,8 +1378,59 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1224,8 +1440,59 @@
       <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1235,8 +1502,59 @@
       <c r="C5" s="19" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1246,8 +1564,59 @@
       <c r="C6" s="15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1257,8 +1626,59 @@
       <c r="C7" s="16" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1268,8 +1688,59 @@
       <c r="C8" s="16" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1279,8 +1750,59 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+      <c r="L9" s="18">
+        <v>11</v>
+      </c>
+      <c r="M9" s="18">
+        <v>12</v>
+      </c>
+      <c r="N9" s="18">
+        <v>13</v>
+      </c>
+      <c r="O9" s="18">
+        <v>14</v>
+      </c>
+      <c r="P9" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>16</v>
+      </c>
+      <c r="R9" s="18">
+        <v>17</v>
+      </c>
+      <c r="S9" s="18">
+        <v>18</v>
+      </c>
+      <c r="T9" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1290,14 +1812,65 @@
       <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:T2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:T2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1315,7 +1888,7 @@
       <selection activeCell="B2" sqref="B2:U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1339,7 +1912,7 @@
     <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1401,8 +1974,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:21">
+      <c r="A2" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1466,8 +2039,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+    <row r="3" spans="1:21">
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1529,37 +2102,37 @@
         <v>121212</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="75">
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="75">
       <c r="A6" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="120">
       <c r="A7" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="60">
       <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="45">
       <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="B11">
         <v>1</v>
       </c>
@@ -1582,8 +2155,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:21">
+      <c r="A12" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -1608,8 +2181,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:21">
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1632,32 +2205,32 @@
         <v>121212</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="75">
       <c r="A15" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="75">
       <c r="A16" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="120">
       <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="60">
       <c r="A18" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="45">
       <c r="A19" s="9" t="s">
         <v>60</v>
       </c>
@@ -1680,332 +2253,332 @@
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15.75" thickBot="1">
       <c r="A2" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="15.75" thickBot="1">
       <c r="A3" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="15.75" thickBot="1">
       <c r="A4" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="15.75" thickBot="1">
       <c r="A5" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="15.75" thickBot="1">
       <c r="A6" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15.75" thickBot="1">
       <c r="A7" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="15.75" thickBot="1">
       <c r="A8" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="15.75" thickBot="1">
       <c r="A9" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="15.75" thickBot="1">
       <c r="A10" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="15.75" thickBot="1">
       <c r="A11" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1">
       <c r="A12" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="15.75" thickBot="1">
       <c r="A13" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="15.75" thickBot="1">
       <c r="A14" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15.75" thickBot="1">
       <c r="A15" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="15.75" thickBot="1">
       <c r="A16" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15.75" thickBot="1">
       <c r="A17" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="15.75" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="15.75" thickBot="1">
       <c r="A19" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="15.75" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="15.75" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="15.75" thickBot="1">
       <c r="A22" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="15.75" thickBot="1">
       <c r="A23" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1">
       <c r="A24" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="15.75" thickBot="1">
       <c r="A25" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="15.75" thickBot="1">
       <c r="A26" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="15.75" thickBot="1">
       <c r="A27" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="15.75" thickBot="1">
       <c r="A28" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="15.75" thickBot="1">
       <c r="A29" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="15.75" thickBot="1">
       <c r="A30" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="15.75" thickBot="1">
       <c r="A31" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="15.75" thickBot="1">
       <c r="A32" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="15.75" thickBot="1">
       <c r="A33" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="15.75" thickBot="1">
       <c r="A34" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="15.75" thickBot="1">
       <c r="A35" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="15.75" thickBot="1">
       <c r="A36" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="15.75" thickBot="1">
       <c r="A37" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" ht="15.75" thickBot="1">
       <c r="A38" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="15.75" thickBot="1">
       <c r="A39" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" ht="15.75" thickBot="1">
       <c r="A40" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" ht="15.75" thickBot="1">
       <c r="A41" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" ht="15.75" thickBot="1">
       <c r="A42" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" ht="15.75" thickBot="1">
       <c r="A43" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1">
       <c r="A44" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="15.75" thickBot="1">
       <c r="A45" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="15.75" thickBot="1">
       <c r="A46" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" ht="15.75" thickBot="1">
       <c r="A47" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="15.75" thickBot="1">
       <c r="A48" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" ht="15.75" thickBot="1">
       <c r="A49" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="15.75" thickBot="1">
       <c r="A50" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" ht="15.75" thickBot="1">
       <c r="A51" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="15.75" thickBot="1">
       <c r="A52" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" ht="15.75" thickBot="1">
       <c r="A53" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="15.75" thickBot="1">
       <c r="A54" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" ht="15.75" thickBot="1">
       <c r="A55" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="15.75" thickBot="1">
       <c r="A56" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" ht="15.75" thickBot="1">
       <c r="A57" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="15.75" thickBot="1">
       <c r="A58" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" ht="15.75" thickBot="1">
       <c r="A59" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="15.75" thickBot="1">
       <c r="A60" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" ht="15.75" thickBot="1">
       <c r="A61" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="15.75" thickBot="1">
       <c r="A62" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" ht="15.75" thickBot="1">
       <c r="A63" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="15.75" thickBot="1">
       <c r="A64" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" ht="15.75" thickBot="1">
       <c r="A65" s="13" t="s">
         <v>138</v>
       </c>

--- a/ExecutionTestData/4/TestData.xlsx
+++ b/ExecutionTestData/4/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finalList9Feb\batches\Batch4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="149">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,15 +458,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://device.pcloudy.com</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -479,47 +473,26 @@
     <t>121212</t>
   </si>
   <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote8Pro_Android_10.0.0_d3e8a</t>
-  </si>
-  <si>
-    <t>HUAWEI_P30Lite_Android_10.0.0_693f0</t>
-  </si>
-  <si>
-    <t>HUAWEI_nova3i_Android_8.1.0_c7f62</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi6Pro_Android_8.1.0_3492f</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote5Pro_Android_9.0.0_d098d</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiY2_Android_9.0.0_be7ae</t>
-  </si>
-  <si>
-    <t>HUAWEI_P20Pro_Android_10.0.0_dec7f</t>
-  </si>
-  <si>
-    <t>HUAWEI_Honor9A_Android_10.0.0_d1e87</t>
-  </si>
-  <si>
-    <t>XIAOMI_Mi11Lite_Android_11.0.0_18ffa</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi10Prime_Android_11.0.0_6ef79</t>
-  </si>
-  <si>
-    <t>XIAOMI_XIAOMI_Android_11.0.0_668ba</t>
+    <t>https://us.pcloudy.com</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneX_iOS_13.5.1_5640f</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone8_iOS_14.1.0_81551</t>
+  </si>
+  <si>
+    <t>13.5.1</t>
+  </si>
+  <si>
+    <t>14.1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,16 +534,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -586,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -639,25 +602,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -708,19 +658,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1046,11 +989,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1071,7 +1014,7 @@
     <col min="17" max="16384" width="14.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1121,7 +1064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1075,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1171,7 +1114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="6" customFormat="1">
+    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1182,7 +1125,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1229,208 +1172,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="20" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="9" customFormat="1">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="B1" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="T2" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="B2" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1440,307 +1227,52 @@
       <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1750,59 +1282,8 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-      <c r="M9" s="18">
-        <v>12</v>
-      </c>
-      <c r="N9" s="18">
-        <v>13</v>
-      </c>
-      <c r="O9" s="18">
-        <v>14</v>
-      </c>
-      <c r="P9" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>16</v>
-      </c>
-      <c r="R9" s="18">
-        <v>17</v>
-      </c>
-      <c r="S9" s="18">
-        <v>18</v>
-      </c>
-      <c r="T9" s="18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1812,67 +1293,16 @@
       <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:T2">
+  <conditionalFormatting sqref="B2:C2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:T2">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not working">
+      <formula>LEFT((B2),LEN("Not working"))=("Not working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1888,7 +1318,7 @@
       <selection activeCell="B2" sqref="B2:U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1912,7 +1342,7 @@
     <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1974,7 +1404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>55</v>
       </c>
@@ -2039,7 +1469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
@@ -2102,37 +1532,37 @@
         <v>121212</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="75">
+    <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="75">
+    <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="120">
+    <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="60">
+    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="45">
+    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -2155,7 +1585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>62</v>
       </c>
@@ -2181,7 +1611,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
@@ -2205,32 +1635,32 @@
         <v>121212</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="75">
+    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="75">
+    <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="120">
+    <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="60">
+    <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="45">
+    <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>60</v>
       </c>
@@ -2253,332 +1683,332 @@
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1">
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1">
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1">
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1">
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1">
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1">
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1">
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1">
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" thickBot="1">
+    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1">
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1">
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1">
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1">
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1">
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1">
+    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1">
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1">
+    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1">
+    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1">
+    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75" thickBot="1">
+    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1">
+    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1">
+    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1">
+    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1">
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1">
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1">
+    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1">
+    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1">
+    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1">
+    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1">
+    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1">
+    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1">
+    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1">
+    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1">
+    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1">
+    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1">
+    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1">
+    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1">
+    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1">
+    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.75" thickBot="1">
+    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1">
+    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.75" thickBot="1">
+    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" thickBot="1">
+    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75" thickBot="1">
+    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.75" thickBot="1">
+    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1">
+    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" thickBot="1">
+    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" thickBot="1">
+    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1">
+    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.75" thickBot="1">
+    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.75" thickBot="1">
+    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1">
+    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15.75" thickBot="1">
+    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15.75" thickBot="1">
+    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1">
+    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>138</v>
       </c>

--- a/ExecutionTestData/4/TestData.xlsx
+++ b/ExecutionTestData/4/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\skippedBatch4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="158">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,6 +458,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -473,19 +476,43 @@
     <t>121212</t>
   </si>
   <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
     <t>https://us.pcloudy.com</t>
   </si>
   <si>
-    <t>APPLE_iPhoneX_iOS_13.5.1_5640f</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone8_iOS_14.1.0_81551</t>
-  </si>
-  <si>
-    <t>13.5.1</t>
-  </si>
-  <si>
-    <t>14.1.0</t>
+    <t>GOOGLE_Pixel4_Android_12.0.0_3d061</t>
+  </si>
+  <si>
+    <t>HUAWEI_Mate10_Android_10.0.0_2af65</t>
+  </si>
+  <si>
+    <t>HUAWEI_P40lite_Android_10.0.0_30b14</t>
+  </si>
+  <si>
+    <t>ONEPLUS_5T_Android_9.0.0_7e05c</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS10e_Android_11.0.0_b4741</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS20FE_Android_11.0.0_c4883</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS20FE5G_Android_12.0.0_2ff2c</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS20Ultra_Android_11.0.0_94a4b</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS215G_Android_12.0.0_a4b35</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS21Ultra5G_Android_11.0.0_7ed46</t>
+  </si>
+  <si>
+    <t>12.0.0</t>
   </si>
 </sst>
 </file>
@@ -549,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -584,21 +611,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,23 +654,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -989,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1075,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1125,7 +1139,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1172,137 +1186,381 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="17"/>
+    <col min="2" max="2" width="37.85546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="42" style="17" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="17.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="14">
         <v>1</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="D9" s="14">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14">
+        <v>6</v>
+      </c>
+      <c r="H9" s="14">
+        <v>7</v>
+      </c>
+      <c r="I9" s="14">
+        <v>8</v>
+      </c>
+      <c r="J9" s="14">
+        <v>9</v>
+      </c>
+      <c r="K9" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="19" t="s">
         <v>32</v>
       </c>
+      <c r="D10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:K2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not working">
-      <formula>LEFT((B2),LEN("Not working"))=("Not working")</formula>
+  <conditionalFormatting sqref="B2:K2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
+      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1689,327 +1947,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="12" t="s">
         <v>138</v>
       </c>
     </row>

--- a/ExecutionTestData/4/TestData.xlsx
+++ b/ExecutionTestData/4/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\skippedBatch4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -494,13 +494,7 @@
     <t>ONEPLUS_5T_Android_9.0.0_7e05c</t>
   </si>
   <si>
-    <t>SAMSUNG_GalaxyS10e_Android_11.0.0_b4741</t>
-  </si>
-  <si>
     <t>SAMSUNG_GalaxyS20FE_Android_11.0.0_c4883</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS20FE5G_Android_12.0.0_2ff2c</t>
   </si>
   <si>
     <t>SAMSUNG_GalaxyS20Ultra_Android_11.0.0_94a4b</t>
@@ -619,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -670,9 +664,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1186,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,10 +1190,12 @@
     <col min="3" max="3" width="42" style="17" customWidth="1"/>
     <col min="4" max="4" width="34.140625" style="17" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="17.140625" style="17"/>
+    <col min="6" max="6" width="43.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="17.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
@@ -1218,7 +1211,7 @@
       <c r="E1" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>151</v>
       </c>
       <c r="G1" s="16" t="s">
@@ -1230,19 +1223,13 @@
       <c r="I1" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>145</v>
@@ -1253,26 +1240,20 @@
       <c r="E2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>139</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1300,14 +1281,8 @@
       <c r="I3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1324,25 +1299,19 @@
         <v>37</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1370,14 +1339,8 @@
       <c r="I5" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1405,14 +1368,8 @@
       <c r="I6" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1440,14 +1397,8 @@
       <c r="I7" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="J7" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1475,14 +1426,8 @@
       <c r="I8" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="J8" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1510,14 +1455,8 @@
       <c r="I9" s="14">
         <v>8</v>
       </c>
-      <c r="J9" s="14">
-        <v>9</v>
-      </c>
-      <c r="K9" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>31</v>
       </c>
@@ -1545,20 +1484,14 @@
       <c r="I10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K2">
+  <conditionalFormatting sqref="B2:I2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:K2">
+  <conditionalFormatting sqref="B2:I2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1663,7 +1596,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1728,7 +1661,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1844,7 +1777,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -1870,7 +1803,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/4/TestData.xlsx
+++ b/ExecutionTestData/4/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBS bank\Milestone2_ExecutionTestRun1\Execution Results\ExecutionTestData\New folder\2_skippedBatch4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F316B6-2875-448C-824F-F870E4189BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="155">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -494,9 +495,6 @@
     <t>ONEPLUS_5T_Android_9.0.0_7e05c</t>
   </si>
   <si>
-    <t>SAMSUNG_GalaxyS20FE_Android_11.0.0_c4883</t>
-  </si>
-  <si>
     <t>SAMSUNG_GalaxyS20Ultra_Android_11.0.0_94a4b</t>
   </si>
   <si>
@@ -512,7 +510,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -781,6 +779,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -816,6 +831,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -991,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
@@ -1176,11 +1208,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,12 +1222,11 @@
     <col min="3" max="3" width="42" style="17" customWidth="1"/>
     <col min="4" max="4" width="34.140625" style="17" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="43.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="17.140625" style="17"/>
+    <col min="6" max="6" width="45.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="17.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
@@ -1220,16 +1251,13 @@
       <c r="H1" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>145</v>
@@ -1244,16 +1272,13 @@
         <v>139</v>
       </c>
       <c r="G2" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1278,11 +1303,8 @@
       <c r="H3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1299,19 +1321,16 @@
         <v>37</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1336,11 +1355,8 @@
       <c r="H5" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1365,11 +1381,8 @@
       <c r="H6" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1394,11 +1407,8 @@
       <c r="H7" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1423,11 +1433,8 @@
       <c r="H8" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1444,19 +1451,16 @@
         <v>4</v>
       </c>
       <c r="F9" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="14">
-        <v>7</v>
-      </c>
-      <c r="I9" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>31</v>
       </c>
@@ -1481,17 +1485,14 @@
       <c r="H10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:I2">
+  <conditionalFormatting sqref="B2:H2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:I2">
+  <conditionalFormatting sqref="B2:H2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1502,7 +1503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -1867,7 +1868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ExecutionTestData/4/TestData.xlsx
+++ b/ExecutionTestData/4/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3_skipBackup\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="165">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -118,15 +118,6 @@
   </si>
   <si>
     <t>AppName</t>
-  </si>
-  <si>
-    <t>DBS</t>
-  </si>
-  <si>
-    <t>sakshi.juneja@crestechsoftware.com</t>
-  </si>
-  <si>
-    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -458,9 +449,6 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -476,31 +464,76 @@
     <t>121212</t>
   </si>
   <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>https://us.pcloudy.com</t>
-  </si>
-  <si>
-    <t>GOOGLE_Pixel4_Android_12.0.0_3d061</t>
-  </si>
-  <si>
-    <t>HUAWEI_Mate10_Android_10.0.0_2af65</t>
-  </si>
-  <si>
-    <t>HUAWEI_P40lite_Android_10.0.0_30b14</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS20Ultra_Android_11.0.0_94a4b</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS215G_Android_12.0.0_a4b35</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS21Ultra5G_Android_11.0.0_7ed46</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
+    <t>https://ind-west.pcloudy.com</t>
+  </si>
+  <si>
+    <t>XIAOMI_Mi11X_Android_11.0.0_9020d</t>
+  </si>
+  <si>
+    <t>REALME_realmeGTNeo2_Android_11.0.0_39c53</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote8_Android_11.0.0_da311</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyA22_Android_11.0.0_74fa6</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM42_Android_11.0.0_95586</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiGo_Android_8.1.0_1d174</t>
+  </si>
+  <si>
+    <t>REALME_8s_Android_11.0.0_403e0</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXS_iOS_15.0.1_5b352</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12_iOS_15.0.0_03540</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12ProMax_iOS_15.1.1_ebe7c</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12Pro_iOS_14.1.0_51937</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11Pro_iOS_15.2.0_13a6e</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11ProMax_iOS_15.1.0_17a94</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXR_iOS_15.1.0_f0af6</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11_iOS_15.1.0_2832d</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneX_iOS_15.1.0_9431f</t>
+  </si>
+  <si>
+    <t>DBS</t>
+  </si>
+  <si>
+    <t>15.0.1</t>
+  </si>
+  <si>
+    <t>15.0.0</t>
+  </si>
+  <si>
+    <t>15.1.1</t>
+  </si>
+  <si>
+    <t>14.1.0</t>
+  </si>
+  <si>
+    <t>15.2.0</t>
+  </si>
+  <si>
+    <t>15.1.0</t>
   </si>
 </sst>
 </file>
@@ -564,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -602,12 +635,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,22 +705,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -669,7 +734,39 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -988,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1074,7 +1171,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1101,13 +1198,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1124,7 +1221,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1151,13 +1248,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1171,261 +1268,407 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="17"/>
-    <col min="2" max="2" width="37.85546875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="42" style="17" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="17.140625" style="17"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="8" max="10" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="20" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="G4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="18">
         <v>1</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="18">
         <v>3</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
         <v>6</v>
       </c>
-      <c r="F9" s="14">
+      <c r="H9" s="18">
         <v>7</v>
       </c>
-      <c r="G9" s="14">
+      <c r="I9" s="18">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>32</v>
+      <c r="B10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="20" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G2">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:H2">
+    <cfRule type="beginsWith" dxfId="5" priority="5" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G2">
+  <conditionalFormatting sqref="B2:H2">
+    <cfRule type="beginsWith" dxfId="4" priority="6" operator="beginsWith" text="Not Working">
+      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
+      <formula>LEFT((I2),LEN("Working"))=("Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
+      <formula>LEFT((I2),LEN("Not Working"))=("Not Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
+      <formula>LEFT((J2),LEN("Working"))=("Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
+      <formula>LEFT((J2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1437,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,72 +1771,72 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>55</v>
+      <c r="A2" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1657,32 +1900,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1709,33 +1952,33 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1760,32 +2003,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1812,328 +2055,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
+    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/4/TestData.xlsx
+++ b/ExecutionTestData/4/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\Batch10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Test Data" sheetId="5" r:id="rId3"/>
     <sheet name="DeviceMasterSheet" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="156">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>AppName</t>
+  </si>
+  <si>
+    <t>DBS</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -464,76 +467,46 @@
     <t>121212</t>
   </si>
   <si>
-    <t>https://ind-west.pcloudy.com</t>
-  </si>
-  <si>
-    <t>XIAOMI_Mi11X_Android_11.0.0_9020d</t>
-  </si>
-  <si>
-    <t>REALME_realmeGTNeo2_Android_11.0.0_39c53</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote8_Android_11.0.0_da311</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyA22_Android_11.0.0_74fa6</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM42_Android_11.0.0_95586</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiGo_Android_8.1.0_1d174</t>
-  </si>
-  <si>
-    <t>REALME_8s_Android_11.0.0_403e0</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXS_iOS_15.0.1_5b352</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12_iOS_15.0.0_03540</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12ProMax_iOS_15.1.1_ebe7c</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12Pro_iOS_14.1.0_51937</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11Pro_iOS_15.2.0_13a6e</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11ProMax_iOS_15.1.0_17a94</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXR_iOS_15.1.0_f0af6</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11_iOS_15.1.0_2832d</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneX_iOS_15.1.0_9431f</t>
-  </si>
-  <si>
-    <t>DBS</t>
-  </si>
-  <si>
-    <t>15.0.1</t>
-  </si>
-  <si>
-    <t>15.0.0</t>
-  </si>
-  <si>
-    <t>15.1.1</t>
-  </si>
-  <si>
-    <t>14.1.0</t>
-  </si>
-  <si>
-    <t>15.2.0</t>
-  </si>
-  <si>
-    <t>15.1.0</t>
+    <t>https://us.pcloudy.com</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneSE_iOS_14.6.0_9d61f</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone7_iOS_14.4.0_589b8</t>
+  </si>
+  <si>
+    <t>14.4.0</t>
+  </si>
+  <si>
+    <t>14.6.0</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11_iOS_15.2.1_51b24</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11Pro_iOS_13.0.0_3f7e0</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11Pro_iOS_15.2.1_f9522</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13ProMax_iOS_15.0.2_2f19</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXR_iOS_12.0.1_93659</t>
+  </si>
+  <si>
+    <t>15.2.1</t>
+  </si>
+  <si>
+    <t>13.0.0</t>
+  </si>
+  <si>
+    <t>15.0.2</t>
+  </si>
+  <si>
+    <t>12.0.1</t>
   </si>
 </sst>
 </file>
@@ -637,31 +610,31 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,52 +694,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1085,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1171,7 +1112,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1198,13 +1139,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1221,7 +1162,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1248,13 +1189,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1268,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,75 +1221,61 @@
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="8" max="10" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1370,177 +1297,123 @@
       <c r="G3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>41</v>
+      <c r="B4" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1562,113 +1435,39 @@
       <c r="G9" s="18">
         <v>6</v>
       </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="20" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:H2">
-    <cfRule type="beginsWith" dxfId="5" priority="5" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:G2">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H2">
-    <cfRule type="beginsWith" dxfId="4" priority="6" operator="beginsWith" text="Not Working">
-      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
-      <formula>LEFT((I2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
-      <formula>LEFT((I2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
-      <formula>LEFT((J2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((J2),LEN("Not Working"))=("Not Working")</formula>
+  <conditionalFormatting sqref="B2:G2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not working">
+      <formula>LEFT((B2),LEN("Not working"))=("Not working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1680,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,72 +1570,72 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="20"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1900,32 +1699,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1952,33 +1751,33 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>59</v>
+      <c r="A12" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="21"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -2003,32 +1802,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2056,327 +1855,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/4/TestData.xlsx
+++ b/ExecutionTestData/4/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\Batch10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="148">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -452,6 +452,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -467,46 +470,19 @@
     <t>121212</t>
   </si>
   <si>
+    <t>12.0.0</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS215G_Android_12.0.0_a4b35</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS21Ultra5G_Android_11.0.0_7ed46</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS20Ultra_Android_11.0.0_94a4b</t>
+  </si>
+  <si>
     <t>https://us.pcloudy.com</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneSE_iOS_14.6.0_9d61f</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7_iOS_14.4.0_589b8</t>
-  </si>
-  <si>
-    <t>14.4.0</t>
-  </si>
-  <si>
-    <t>14.6.0</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11_iOS_15.2.1_51b24</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11Pro_iOS_13.0.0_3f7e0</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11Pro_iOS_15.2.1_f9522</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone13ProMax_iOS_15.0.2_2f19</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXR_iOS_12.0.1_93659</t>
-  </si>
-  <si>
-    <t>15.2.1</t>
-  </si>
-  <si>
-    <t>13.0.0</t>
-  </si>
-  <si>
-    <t>15.0.2</t>
-  </si>
-  <si>
-    <t>12.0.1</t>
   </si>
 </sst>
 </file>
@@ -570,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -608,42 +584,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,8 +646,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1027,7 +974,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1112,7 +1059,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1162,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1209,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,85 +1167,51 @@
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1311,109 +1224,64 @@
       <c r="D4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1426,17 +1294,8 @@
       <c r="D9" s="18">
         <v>3</v>
       </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1449,23 +1308,14 @@
       <c r="D10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G2">
+  <conditionalFormatting sqref="B2:D2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G2">
+  <conditionalFormatting sqref="B2:D2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not working">
       <formula>LEFT((B2),LEN("Not working"))=("Not working")</formula>
     </cfRule>

--- a/ExecutionTestData/4/TestData.xlsx
+++ b/ExecutionTestData/4/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lastpririority batch\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Test Data" sheetId="5" r:id="rId3"/>
     <sheet name="DeviceMasterSheet" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="148">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,9 +458,6 @@
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://device.pcloudy.com</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -473,34 +470,19 @@
     <t>121212</t>
   </si>
   <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
     <t>12.0.0</t>
   </si>
   <si>
-    <t>MOTOROLA_MotoE7Power_Android_10.0.0_a2201</t>
-  </si>
-  <si>
-    <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
-  </si>
-  <si>
-    <t>REALME_9i_Android_11.0.0_2410</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyA72018_Android_10.0.0_ef0ba</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi5_Android_8.1.0_8e5b7</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote8Pro_Android_10.0.0_d3e8a</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM11_Android_11.0.0_c72bc</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi9i_Android_10.0.0_114f3</t>
+    <t>SAMSUNG_GalaxyS215G_Android_12.0.0_a4b35</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS21Ultra5G_Android_11.0.0_7ed46</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS20Ultra_Android_11.0.0_94a4b</t>
+  </si>
+  <si>
+    <t>https://us.pcloudy.com</t>
   </si>
 </sst>
 </file>
@@ -564,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -602,42 +584,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,103 +640,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1103,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1059,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1239,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1286,57 +1156,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="5" max="8" width="17.140625" style="12"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C1" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1344,37 +1191,13 @@
         <v>137</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1387,36 +1210,12 @@
       <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -1425,184 +1224,64 @@
       <c r="D4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1615,32 +1294,8 @@
       <c r="D9" s="18">
         <v>3</v>
       </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1653,70 +1308,16 @@
       <c r="D10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:H2">
-    <cfRule type="beginsWith" dxfId="11" priority="7" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:D2">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H2">
-    <cfRule type="beginsWith" dxfId="10" priority="8" operator="beginsWith" text="Not Working">
-      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="beginsWith" dxfId="9" priority="5" operator="beginsWith" text="Working">
-      <formula>LEFT((I2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="beginsWith" dxfId="8" priority="6" operator="beginsWith" text="Not Working">
-      <formula>LEFT((I2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K2">
-    <cfRule type="beginsWith" dxfId="7" priority="3" operator="beginsWith" text="Working">
-      <formula>LEFT((J2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K2">
-    <cfRule type="beginsWith" dxfId="5" priority="4" operator="beginsWith" text="Not Working">
-      <formula>LEFT((J2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="Working">
-      <formula>LEFT((L2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((L2),LEN("Not Working"))=("Not Working")</formula>
+  <conditionalFormatting sqref="B2:D2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not working">
+      <formula>LEFT((B2),LEN("Not working"))=("Not working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1728,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1420,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -1884,7 +1485,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+      <c r="A3" s="20"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -2000,7 +1601,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -2026,7 +1627,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="21"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/4/TestData.xlsx
+++ b/ExecutionTestData/4/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Test Data" sheetId="5" r:id="rId3"/>
     <sheet name="DeviceMasterSheet" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="150">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>DBS</t>
+  </si>
+  <si>
+    <t>sakshi.juneja@crestechsoftware.com</t>
+  </si>
+  <si>
+    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -458,6 +464,24 @@
     <t>EndPoint</t>
   </si>
   <si>
+    <t>https://device.pcloudy.com</t>
+  </si>
+  <si>
+    <t>iWEALTH</t>
+  </si>
+  <si>
+    <t>NSTRAX15</t>
+  </si>
+  <si>
+    <t>425455</t>
+  </si>
+  <si>
+    <t>NSTRAX10</t>
+  </si>
+  <si>
+    <t>872465</t>
+  </si>
+  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -465,24 +489,6 @@
   </si>
   <si>
     <t>9.0.0</t>
-  </si>
-  <si>
-    <t>121212</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS215G_Android_12.0.0_a4b35</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS21Ultra5G_Android_11.0.0_7ed46</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS20Ultra_Android_11.0.0_94a4b</t>
-  </si>
-  <si>
-    <t>https://us.pcloudy.com</t>
   </si>
 </sst>
 </file>
@@ -532,7 +538,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,8 +551,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -581,6 +599,21 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,39 +672,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -973,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1059,7 +1073,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1086,13 +1100,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1109,7 +1123,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1136,13 +1150,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1156,48 +1170,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="2" max="3" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1207,81 +1213,69 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1291,11 +1285,8 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1303,23 +1294,15 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:D2">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
-      <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:D2">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not working">
-      <formula>LEFT((B2),LEN("Not working"))=("Not working")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1329,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,72 +1403,72 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" t="s">
-        <v>51</v>
-      </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1549,32 +1532,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1601,33 +1584,33 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>60</v>
+      <c r="A12" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1652,32 +1635,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1705,327 +1688,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/4/TestData.xlsx
+++ b/ExecutionTestData/4/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -489,6 +489,12 @@
   </si>
   <si>
     <t>9.0.0</t>
+  </si>
+  <si>
+    <t>ONEPLUS_NordCE_Android_11.0.0_99096</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyJ4Plus_Android_9.0.0_94cc6</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1179,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,10 +1192,10 @@
         <v>19</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1200,7 +1206,7 @@
         <v>139</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/ExecutionTestData/4/TestData.xlsx
+++ b/ExecutionTestData/4/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\rerun batches\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="151">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,9 +458,6 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -491,10 +488,10 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>ONEPLUS_NordCE_Android_11.0.0_99096</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyJ4Plus_Android_9.0.0_94cc6</t>
+    <t>SAMSUNG_GalaxyM10_Android_10.0.0_a58e4</t>
+  </si>
+  <si>
+    <t>10.0.0</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1079,7 +1076,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1129,7 +1126,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1179,7 +1176,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,10 +1189,10 @@
         <v>19</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,10 +1200,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,10 +1222,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1239,10 +1236,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1253,10 +1250,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,10 +1261,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,10 +1272,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1300,7 +1297,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/ExecutionTestData/4/TestData.xlsx
+++ b/ExecutionTestData/4/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\TestDataNew\ExecutionTestData\5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final run master testdata\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="154">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>DBS</t>
-  </si>
-  <si>
-    <t>sakshi.juneja@crestechsoftware.com</t>
-  </si>
-  <si>
-    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -458,18 +452,15 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
     <t>https://device.pcloudy.com</t>
   </si>
   <si>
-    <t>NSTRAX10</t>
-  </si>
-  <si>
-    <t>872465</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -479,14 +470,44 @@
     <t>9.0.0</t>
   </si>
   <si>
+    <t>121212</t>
+  </si>
+  <si>
     <t>10.0.0</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote8Pro_Android_10.0.0_d3e8a</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi6Pro_Android_8.1.0_3492f</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote5Pro_Android_9.0.0_d098d</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiY2_Android_9.0.0_be7ae</t>
+  </si>
+  <si>
+    <t>XIAOMI_Mi11Lite_Android_11.0.0_18ffa</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi10Prime_Android_11.0.0_6ef79</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote11T_Android_11.0.0_668ba</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi9i_Android_10.0.0_114f3</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyJ7Pro_Android_9.0.0_a715a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,8 +549,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,12 +566,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -607,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,12 +677,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -972,10 +999,10 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.140625" style="3" bestFit="1" customWidth="1"/>
@@ -996,7 +1023,7 @@
     <col min="17" max="16384" width="14.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1046,7 +1073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1084,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1084,19 +1111,19 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="6" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1107,7 +1134,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1134,13 +1161,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1154,107 +1181,671 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="8" max="16" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="9" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="18">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+      <c r="L9" s="18">
+        <v>11</v>
+      </c>
+      <c r="M9" s="18">
+        <v>12</v>
+      </c>
+      <c r="N9" s="18">
+        <v>13</v>
+      </c>
+      <c r="O9" s="18">
+        <v>14</v>
+      </c>
+      <c r="P9" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>16</v>
+      </c>
+      <c r="R9" s="18">
+        <v>17</v>
+      </c>
+      <c r="S9" s="18">
+        <v>18</v>
+      </c>
+      <c r="T9" s="18">
+        <v>19</v>
+      </c>
+      <c r="U9" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
@@ -1265,11 +1856,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:X3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1293,7 +1884,7 @@
     <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1355,165 +1946,165 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:21">
+      <c r="A2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="22"/>
+      <c r="B3">
+        <v>121212</v>
+      </c>
+      <c r="C3">
+        <v>121212</v>
+      </c>
+      <c r="D3">
+        <v>121212</v>
+      </c>
+      <c r="E3">
+        <v>121212</v>
+      </c>
+      <c r="F3">
+        <v>121212</v>
+      </c>
+      <c r="G3">
+        <v>121212</v>
+      </c>
+      <c r="H3">
+        <v>121212</v>
+      </c>
+      <c r="I3">
+        <v>121212</v>
+      </c>
+      <c r="J3">
+        <v>121212</v>
+      </c>
+      <c r="K3">
+        <v>121212</v>
+      </c>
+      <c r="L3">
+        <v>121212</v>
+      </c>
+      <c r="M3">
+        <v>121212</v>
+      </c>
+      <c r="N3">
+        <v>121212</v>
+      </c>
+      <c r="O3">
+        <v>121212</v>
+      </c>
+      <c r="P3">
+        <v>121212</v>
+      </c>
+      <c r="Q3">
+        <v>121212</v>
+      </c>
+      <c r="R3">
+        <v>121212</v>
+      </c>
+      <c r="S3">
+        <v>121212</v>
+      </c>
+      <c r="T3">
+        <v>121212</v>
+      </c>
+      <c r="U3">
+        <v>121212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="75">
+      <c r="A5" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="75">
+      <c r="A6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3">
-        <v>121212</v>
-      </c>
-      <c r="C3">
-        <v>121212</v>
-      </c>
-      <c r="D3">
-        <v>121212</v>
-      </c>
-      <c r="E3">
-        <v>121212</v>
-      </c>
-      <c r="F3">
-        <v>121212</v>
-      </c>
-      <c r="G3">
-        <v>121212</v>
-      </c>
-      <c r="H3">
-        <v>121212</v>
-      </c>
-      <c r="I3">
-        <v>121212</v>
-      </c>
-      <c r="J3">
-        <v>121212</v>
-      </c>
-      <c r="K3">
-        <v>121212</v>
-      </c>
-      <c r="L3">
-        <v>121212</v>
-      </c>
-      <c r="M3">
-        <v>121212</v>
-      </c>
-      <c r="N3">
-        <v>121212</v>
-      </c>
-      <c r="O3">
-        <v>121212</v>
-      </c>
-      <c r="P3">
-        <v>121212</v>
-      </c>
-      <c r="Q3">
-        <v>121212</v>
-      </c>
-      <c r="R3">
-        <v>121212</v>
-      </c>
-      <c r="S3">
-        <v>121212</v>
-      </c>
-      <c r="T3">
-        <v>121212</v>
-      </c>
-      <c r="U3">
-        <v>121212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    </row>
+    <row r="7" spans="1:21" ht="120">
+      <c r="A7" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="8" spans="1:21" ht="60">
+      <c r="A8" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="9" spans="1:21" ht="45">
+      <c r="A9" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="B11">
         <v>1</v>
       </c>
@@ -1536,34 +2127,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:21">
+      <c r="A12" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>67</v>
       </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="23"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1586,34 +2177,34 @@
         <v>121212</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="75">
+      <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="75">
+      <c r="A16" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="120">
+      <c r="A17" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="18" spans="1:1" ht="60">
+      <c r="A18" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="19" spans="1:1" ht="45">
+      <c r="A19" s="9" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1634,334 +2225,334 @@
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A2" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A3" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="4" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A4" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="5" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A5" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="6" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A6" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="7" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A7" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="8" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A8" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="9" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A9" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="10" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A10" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+    <row r="11" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A11" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A12" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+    <row r="13" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A13" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+    <row r="14" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A14" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+    <row r="15" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+    <row r="16" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A16" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+    <row r="17" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A17" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+    <row r="18" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+    <row r="19" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A19" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+    <row r="20" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+    <row r="21" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A21" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+    <row r="22" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A22" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+    <row r="23" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A23" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A24" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+    <row r="25" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+    <row r="26" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A26" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+    <row r="27" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A27" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+    <row r="28" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A28" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+    <row r="29" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A29" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+    <row r="30" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A30" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+    <row r="31" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A31" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+    <row r="32" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A32" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+    <row r="33" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A33" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+    <row r="34" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A34" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+    <row r="35" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A35" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+    <row r="36" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A36" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A37" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+    <row r="38" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A38" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+    <row r="39" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A39" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+    <row r="40" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A40" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+    <row r="41" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A41" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+    <row r="42" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A42" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+    <row r="43" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A43" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A44" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+    <row r="45" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A45" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+    <row r="46" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A46" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
+    <row r="47" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A47" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+    <row r="48" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A48" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+    <row r="49" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A49" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+    <row r="50" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A50" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
+    <row r="51" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A51" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+    <row r="52" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A52" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+    <row r="53" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A53" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+    <row r="54" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A54" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
+    <row r="55" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A55" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+    <row r="56" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A56" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
+    <row r="57" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A57" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
+    <row r="58" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A58" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+    <row r="59" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A59" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
+    <row r="60" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A60" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+    <row r="61" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A61" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+    <row r="62" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A62" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+    <row r="63" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A63" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+    <row r="64" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A64" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
+    <row r="65" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A65" s="13" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
